--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xlproject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_googlemap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043F4306-9B23-4737-8325-387A78A6AD43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD5E586-0B6C-4AF4-B646-E597889F3771}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,19 +27,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t xml:space="preserve">ranchi </t>
   </si>
   <si>
     <t>bangalore</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>data2</t>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>India</t>
   </si>
 </sst>
 </file>
@@ -359,35 +359,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
